--- a/JiawenHou_CorrGrid.xlsx
+++ b/JiawenHou_CorrGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Winnie/Dropbox/Study/COMP3004/A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D324F-FFE6-164B-A177-6FCC6A3FB759}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E9FD7-501A-0D40-BFA7-97E2B30A6796}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
   <si>
     <t>Your game starts</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>in presence of splitting, winner is correctly chosen</t>
-  </si>
-  <si>
-    <t>yes/no</t>
   </si>
   <si>
     <t>You have coded your dependencies using Maven</t>
@@ -985,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="156" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,70 +995,70 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6">
@@ -1070,10 +1067,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7">
@@ -1082,10 +1079,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8">
@@ -1094,10 +1091,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="8">
         <f>SUM(J16:J45)</f>
@@ -1108,45 +1105,45 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11">
         <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
         <v>0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14">
@@ -1158,29 +1155,29 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15">
         <v>0.5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1193,17 +1190,17 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1219,14 +1216,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18">
         <v>0.5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1242,14 +1239,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19">
         <v>0.5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1265,14 +1262,14 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1288,14 +1285,14 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1311,14 +1308,14 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1334,14 +1331,14 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1354,17 +1351,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24">
         <v>0.5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1377,20 +1374,20 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25">
         <v>0.5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1405,14 +1402,14 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1428,14 +1425,14 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1451,14 +1448,14 @@
         <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1474,14 +1471,14 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1497,14 +1494,14 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1520,14 +1517,14 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31">
         <v>0.5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1543,14 +1540,14 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32">
         <v>0.5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1563,17 +1560,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33">
         <v>0.5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1589,14 +1586,14 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34">
         <v>0.5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1609,17 +1606,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35">
         <v>0.5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1635,14 +1632,14 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36">
         <v>0.5</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1658,14 +1655,14 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1681,14 +1678,14 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1701,17 +1698,17 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1727,14 +1724,14 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1747,17 +1744,17 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1770,17 +1767,17 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1796,7 +1793,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1807,24 +1804,24 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="6"/>
@@ -1837,21 +1834,21 @@
         <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>
@@ -1864,7 +1861,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47">
@@ -1876,29 +1873,29 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48">
         <v>0.5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -1907,17 +1904,17 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1926,75 +1923,75 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54">
         <v>1.5</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56">
         <v>1.5</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2002,82 +1999,82 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
         <v>92</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>93</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>94</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>95</v>
-      </c>
-      <c r="I61" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" t="s">
         <v>89</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>90</v>
-      </c>
-      <c r="G62" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2085,7 +2082,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4"/>
       <c r="D64">
@@ -2095,18 +2092,18 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67">
@@ -2115,7 +2112,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68">
@@ -2124,12 +2121,12 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71">
@@ -2138,7 +2135,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72">
@@ -2147,7 +2144,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73">
@@ -2156,7 +2153,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="7">
         <f>SUM(C6:C74)</f>

--- a/JiawenHou_CorrGrid.xlsx
+++ b/JiawenHou_CorrGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Winnie/Dropbox/Study/COMP3004/A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E9FD7-501A-0D40-BFA7-97E2B30A6796}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7896CB5E-72E8-DA4A-8D5E-7B86CED65DBC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
   <si>
     <t>Your game starts</t>
   </si>
@@ -390,12 +390,6 @@
     <t>playerHitTwiceWin.txt</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>playersTest.java/testGetScoreAndAceHandler（）</t>
-  </si>
-  <si>
     <t>playerTest.java/testDealerHit()</t>
   </si>
   <si>
@@ -412,13 +406,19 @@
   </si>
   <si>
     <t>FileInputTests.java, 10 test cases in total</t>
+  </si>
+  <si>
+    <t>playersTest.java/testGetScoreAndAceHandler()</t>
+  </si>
+  <si>
+    <t>Please checkout README.md file for credential information(reference)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,12 +455,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -565,7 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -576,7 +570,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -980,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="156" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="156" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1113,7 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1135,7 +1128,7 @@
         <v>0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1177,7 +1170,7 @@
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1361,7 +1354,7 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1478,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1753,8 +1746,8 @@
       <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>114</v>
+      <c r="E41" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1777,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2006,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2158,6 +2151,11 @@
       <c r="C75" s="7">
         <f>SUM(C6:C74)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
